--- a/artfynd/A 53409-2018.xlsx
+++ b/artfynd/A 53409-2018.xlsx
@@ -2820,10 +2820,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111559701</v>
+        <v>111560002</v>
       </c>
       <c r="B20" t="n">
-        <v>12249</v>
+        <v>94134</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2832,32 +2832,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>101283</v>
+        <v>53</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Djupsvart brunbagge</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Melandrya dubia</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schaller, 1783)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2865,10 +2864,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>523950.9321204902</v>
+        <v>523901.5626756602</v>
       </c>
       <c r="R20" t="n">
-        <v>6934675.944620069</v>
+        <v>6934793.265219755</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2895,7 +2894,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2905,17 +2904,12 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Kläckhål med svartfärgade larvgångar på björkhögstubbe med levande fnösktickor. Naturskog norr om Vattensjöarna</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2943,10 +2937,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111560002</v>
+        <v>111560058</v>
       </c>
       <c r="B21" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2959,27 +2953,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2987,10 +2980,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>523901.5626756602</v>
+        <v>523906.9737172622</v>
       </c>
       <c r="R21" t="n">
-        <v>6934793.265219755</v>
+        <v>6934619.326478666</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3060,10 +3053,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111560058</v>
+        <v>111559701</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>12249</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3072,30 +3065,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>101283</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Djupsvart brunbagge</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Melandrya dubia</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schaller, 1783)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3103,10 +3098,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>523906.9737172622</v>
+        <v>523950.9321204902</v>
       </c>
       <c r="R22" t="n">
-        <v>6934619.326478666</v>
+        <v>6934675.944620069</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3133,7 +3128,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3143,12 +3138,17 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Kläckhål med svartfärgade larvgångar på björkhögstubbe med levande fnösktickor. Naturskog norr om Vattensjöarna</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 53409-2018.xlsx
+++ b/artfynd/A 53409-2018.xlsx
@@ -2704,7 +2704,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111560043</v>
+        <v>111560058</v>
       </c>
       <c r="B19" t="n">
         <v>78578</v>
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>523949.236686704</v>
+        <v>523906.9737172622</v>
       </c>
       <c r="R19" t="n">
-        <v>6934654.704083432</v>
+        <v>6934619.326478666</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111560058</v>
+        <v>111560043</v>
       </c>
       <c r="B21" t="n">
         <v>78578</v>
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>523906.9737172622</v>
+        <v>523949.236686704</v>
       </c>
       <c r="R21" t="n">
-        <v>6934619.326478666</v>
+        <v>6934654.704083432</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>

--- a/artfynd/A 53409-2018.xlsx
+++ b/artfynd/A 53409-2018.xlsx
@@ -2704,10 +2704,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111560058</v>
+        <v>111560002</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2720,26 +2720,27 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2747,10 +2748,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>523906.9737172622</v>
+        <v>523901.5626756602</v>
       </c>
       <c r="R19" t="n">
-        <v>6934619.326478666</v>
+        <v>6934793.265219755</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2820,10 +2821,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111560002</v>
+        <v>111560058</v>
       </c>
       <c r="B20" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2836,27 +2837,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2864,10 +2864,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>523901.5626756602</v>
+        <v>523906.9737172622</v>
       </c>
       <c r="R20" t="n">
-        <v>6934793.265219755</v>
+        <v>6934619.326478666</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2937,10 +2937,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111560043</v>
+        <v>111559701</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>12249</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2949,30 +2949,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>101283</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Djupsvart brunbagge</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Melandrya dubia</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schaller, 1783)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2980,10 +2982,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>523949.236686704</v>
+        <v>523950.9321204902</v>
       </c>
       <c r="R21" t="n">
-        <v>6934654.704083432</v>
+        <v>6934675.944620069</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3010,7 +3012,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3020,12 +3022,17 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Kläckhål med svartfärgade larvgångar på björkhögstubbe med levande fnösktickor. Naturskog norr om Vattensjöarna</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3053,10 +3060,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111559701</v>
+        <v>111560043</v>
       </c>
       <c r="B22" t="n">
-        <v>12249</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3065,32 +3072,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>101283</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Djupsvart brunbagge</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Melandrya dubia</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schaller, 1783)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3098,10 +3103,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>523950.9321204902</v>
+        <v>523949.236686704</v>
       </c>
       <c r="R22" t="n">
-        <v>6934675.944620069</v>
+        <v>6934654.704083432</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3128,7 +3133,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3138,17 +3143,12 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Kläckhål med svartfärgade larvgångar på björkhögstubbe med levande fnösktickor. Naturskog norr om Vattensjöarna</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 53409-2018.xlsx
+++ b/artfynd/A 53409-2018.xlsx
@@ -2821,10 +2821,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111560058</v>
+        <v>111559701</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>12249</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2833,30 +2833,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>101283</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Djupsvart brunbagge</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Melandrya dubia</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schaller, 1783)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2864,10 +2866,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>523906.9737172622</v>
+        <v>523950.9321204902</v>
       </c>
       <c r="R20" t="n">
-        <v>6934619.326478666</v>
+        <v>6934675.944620069</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2894,7 +2896,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2904,12 +2906,17 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Kläckhål med svartfärgade larvgångar på björkhögstubbe med levande fnösktickor. Naturskog norr om Vattensjöarna</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2937,10 +2944,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111559701</v>
+        <v>111560043</v>
       </c>
       <c r="B21" t="n">
-        <v>12249</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2949,32 +2956,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>101283</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Djupsvart brunbagge</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Melandrya dubia</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schaller, 1783)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2982,10 +2987,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>523950.9321204902</v>
+        <v>523949.236686704</v>
       </c>
       <c r="R21" t="n">
-        <v>6934675.944620069</v>
+        <v>6934654.704083432</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3012,7 +3017,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3022,17 +3027,12 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Kläckhål med svartfärgade larvgångar på björkhögstubbe med levande fnösktickor. Naturskog norr om Vattensjöarna</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3060,7 +3060,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111560043</v>
+        <v>111560058</v>
       </c>
       <c r="B22" t="n">
         <v>78578</v>
@@ -3103,10 +3103,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>523949.236686704</v>
+        <v>523906.9737172622</v>
       </c>
       <c r="R22" t="n">
-        <v>6934654.704083432</v>
+        <v>6934619.326478666</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>

--- a/artfynd/A 53409-2018.xlsx
+++ b/artfynd/A 53409-2018.xlsx
@@ -2704,10 +2704,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111560002</v>
+        <v>111560043</v>
       </c>
       <c r="B19" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2720,27 +2720,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2748,10 +2747,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>523901.5626756602</v>
+        <v>523949.236686704</v>
       </c>
       <c r="R19" t="n">
-        <v>6934793.265219755</v>
+        <v>6934654.704083432</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2821,10 +2820,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111559701</v>
+        <v>111560002</v>
       </c>
       <c r="B20" t="n">
-        <v>12249</v>
+        <v>94134</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2833,32 +2832,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>101283</v>
+        <v>53</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Djupsvart brunbagge</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Melandrya dubia</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schaller, 1783)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2866,10 +2864,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>523950.9321204902</v>
+        <v>523901.5626756602</v>
       </c>
       <c r="R20" t="n">
-        <v>6934675.944620069</v>
+        <v>6934793.265219755</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2896,7 +2894,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2906,17 +2904,12 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Kläckhål med svartfärgade larvgångar på björkhögstubbe med levande fnösktickor. Naturskog norr om Vattensjöarna</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2944,7 +2937,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111560043</v>
+        <v>111560058</v>
       </c>
       <c r="B21" t="n">
         <v>78578</v>
@@ -2987,10 +2980,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>523949.236686704</v>
+        <v>523906.9737172622</v>
       </c>
       <c r="R21" t="n">
-        <v>6934654.704083432</v>
+        <v>6934619.326478666</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3060,10 +3053,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111560058</v>
+        <v>111559701</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>12249</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3072,30 +3065,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>101283</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Djupsvart brunbagge</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Melandrya dubia</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schaller, 1783)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3103,10 +3098,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>523906.9737172622</v>
+        <v>523950.9321204902</v>
       </c>
       <c r="R22" t="n">
-        <v>6934619.326478666</v>
+        <v>6934675.944620069</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3133,7 +3128,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3143,12 +3138,17 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Kläckhål med svartfärgade larvgångar på björkhögstubbe med levande fnösktickor. Naturskog norr om Vattensjöarna</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 53409-2018.xlsx
+++ b/artfynd/A 53409-2018.xlsx
@@ -2704,10 +2704,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111560043</v>
+        <v>111559701</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>12249</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2716,30 +2716,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>101283</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Djupsvart brunbagge</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Melandrya dubia</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schaller, 1783)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2747,10 +2749,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>523949.236686704</v>
+        <v>523950.9321204902</v>
       </c>
       <c r="R19" t="n">
-        <v>6934654.704083432</v>
+        <v>6934675.944620069</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2777,7 +2779,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2787,12 +2789,17 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Kläckhål med svartfärgade larvgångar på björkhögstubbe med levande fnösktickor. Naturskog norr om Vattensjöarna</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2937,7 +2944,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111560058</v>
+        <v>111560043</v>
       </c>
       <c r="B21" t="n">
         <v>78578</v>
@@ -2980,10 +2987,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>523906.9737172622</v>
+        <v>523949.236686704</v>
       </c>
       <c r="R21" t="n">
-        <v>6934619.326478666</v>
+        <v>6934654.704083432</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3053,10 +3060,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111559701</v>
+        <v>111560058</v>
       </c>
       <c r="B22" t="n">
-        <v>12249</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3065,32 +3072,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>101283</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Djupsvart brunbagge</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Melandrya dubia</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schaller, 1783)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3098,10 +3103,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>523950.9321204902</v>
+        <v>523906.9737172622</v>
       </c>
       <c r="R22" t="n">
-        <v>6934675.944620069</v>
+        <v>6934619.326478666</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3128,7 +3133,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3138,17 +3143,12 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Kläckhål med svartfärgade larvgångar på björkhögstubbe med levande fnösktickor. Naturskog norr om Vattensjöarna</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 53409-2018.xlsx
+++ b/artfynd/A 53409-2018.xlsx
@@ -2944,7 +2944,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111560043</v>
+        <v>111560058</v>
       </c>
       <c r="B21" t="n">
         <v>78578</v>
@@ -2987,10 +2987,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>523949.236686704</v>
+        <v>523906.9737172622</v>
       </c>
       <c r="R21" t="n">
-        <v>6934654.704083432</v>
+        <v>6934619.326478666</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111560058</v>
+        <v>111560043</v>
       </c>
       <c r="B22" t="n">
         <v>78578</v>
@@ -3103,10 +3103,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>523906.9737172622</v>
+        <v>523949.236686704</v>
       </c>
       <c r="R22" t="n">
-        <v>6934619.326478666</v>
+        <v>6934654.704083432</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>

--- a/artfynd/A 53409-2018.xlsx
+++ b/artfynd/A 53409-2018.xlsx
@@ -2704,10 +2704,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111559701</v>
+        <v>111560002</v>
       </c>
       <c r="B19" t="n">
-        <v>12249</v>
+        <v>94134</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2716,32 +2716,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>101283</v>
+        <v>53</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Djupsvart brunbagge</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Melandrya dubia</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schaller, 1783)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2749,10 +2748,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>523950.9321204902</v>
+        <v>523901.5626756602</v>
       </c>
       <c r="R19" t="n">
-        <v>6934675.944620069</v>
+        <v>6934793.265219755</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2779,7 +2778,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2789,17 +2788,12 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Kläckhål med svartfärgade larvgångar på björkhögstubbe med levande fnösktickor. Naturskog norr om Vattensjöarna</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2827,10 +2821,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111560002</v>
+        <v>111559701</v>
       </c>
       <c r="B20" t="n">
-        <v>94134</v>
+        <v>12249</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2839,31 +2833,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53</v>
+        <v>101283</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Djupsvart brunbagge</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Melandrya dubia</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schaller, 1783)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2871,10 +2866,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>523901.5626756602</v>
+        <v>523950.9321204902</v>
       </c>
       <c r="R20" t="n">
-        <v>6934793.265219755</v>
+        <v>6934675.944620069</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2901,7 +2896,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2911,12 +2906,17 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Kläckhål med svartfärgade larvgångar på björkhögstubbe med levande fnösktickor. Naturskog norr om Vattensjöarna</t>
         </is>
       </c>
       <c r="AD20" t="b">
